--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Slovenia-cleaned-LAU.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Slovenia-cleaned-LAU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Pictures\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF3772D-0EAD-41AF-924C-148391A95F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF6648-6BB3-4BF5-B304-44B9A540E323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2460" windowWidth="13245" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,13 +1031,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1090,8 +1090,9 @@
       <c r="F3" s="2">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
